--- a/colt_project/ExcelFile/DataCentre.xlsx
+++ b/colt_project/ExcelFile/DataCentre.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWorkRepo\MyTest\MyTest\Web\colt_project_swapnil\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ColtRepo\ColtAutomation\colt_project\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="IncorrectAddress" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="IncorrectAddress" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$I$897</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$897</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13541" uniqueCount="4271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14468" uniqueCount="4423">
   <si>
     <t>12</t>
   </si>
@@ -12842,13 +12843,469 @@
   </si>
   <si>
     <t>Sr.No.</t>
+  </si>
+  <si>
+    <t>62-63</t>
+  </si>
+  <si>
+    <t>Rua de Entrecampos</t>
+  </si>
+  <si>
+    <t>Vía de las Dos Castillas</t>
+  </si>
+  <si>
+    <t>Place de la Comédie</t>
+  </si>
+  <si>
+    <t>Rue des Teinturiers, Lyon,</t>
+  </si>
+  <si>
+    <t>Plaza de la Lealtad</t>
+  </si>
+  <si>
+    <t>Luntmakargatan,</t>
+  </si>
+  <si>
+    <t>Rue Jean l'Aveugle</t>
+  </si>
+  <si>
+    <t>Stationsplein</t>
+  </si>
+  <si>
+    <t>Vlaardingweg,</t>
+  </si>
+  <si>
+    <t>Rua de Gonçalo Sampaio</t>
+  </si>
+  <si>
+    <t>Calle de Alenza</t>
+  </si>
+  <si>
+    <t>Graben</t>
+  </si>
+  <si>
+    <t>Rue de l'Aqueduc</t>
+  </si>
+  <si>
+    <t>Rue Madeleine Vionnet</t>
+  </si>
+  <si>
+    <t>An der Spreeschanze</t>
+  </si>
+  <si>
+    <t>Vasagatan,</t>
+  </si>
+  <si>
+    <t>Avenue Victor Hugo</t>
+  </si>
+  <si>
+    <t>Sandhamnsgatan,</t>
+  </si>
+  <si>
+    <t>Via Ambrogio Figino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viale Vincenzo Lancetti,</t>
+  </si>
+  <si>
+    <t>Avenida da Liberdade</t>
+  </si>
+  <si>
+    <t>Carretera de Pozuelo</t>
+  </si>
+  <si>
+    <t>Avinguda Diagonal</t>
+  </si>
+  <si>
+    <t> Via de Marini</t>
+  </si>
+  <si>
+    <t>Noorderlaan, Antwerpen</t>
+  </si>
+  <si>
+    <t>Avenue du Prado, Marseille</t>
+  </si>
+  <si>
+    <t>Avenida de Manoteras</t>
+  </si>
+  <si>
+    <t>Stieffring,</t>
+  </si>
+  <si>
+    <t>Route de Treves</t>
+  </si>
+  <si>
+    <t>Weena</t>
+  </si>
+  <si>
+    <t>Beethovenstraat</t>
+  </si>
+  <si>
+    <t>Calle de Mesena</t>
+  </si>
+  <si>
+    <t>Carrer de Londres</t>
+  </si>
+  <si>
+    <t>Avenue des Arts</t>
+  </si>
+  <si>
+    <t>Plantin en Moretuslei</t>
+  </si>
+  <si>
+    <t>Place des Reflets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alt-Moabit</t>
+  </si>
+  <si>
+    <t>Lina-Bommer-Weg</t>
+  </si>
+  <si>
+    <t>Nybrokajen,</t>
+  </si>
+  <si>
+    <t>Norgegatan,</t>
+  </si>
+  <si>
+    <t>Rue des Gardinoux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Via Anna Kuliscioff</t>
+  </si>
+  <si>
+    <t>Via di Torre Spaccata</t>
+  </si>
+  <si>
+    <t>Lautrupbjerg</t>
+  </si>
+  <si>
+    <t>Refshalevej</t>
+  </si>
+  <si>
+    <t>Via Brisa</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>Pozuelo de Alarcón</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Berlin</t>
+  </si>
+  <si>
+    <t>Lisboa,</t>
+  </si>
+  <si>
+    <t>Mardid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Majadahonda</t>
+  </si>
+  <si>
+    <t>Liguria</t>
+  </si>
+  <si>
+    <t> Vlaanderen</t>
+  </si>
+  <si>
+    <t> Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>Köln,</t>
+  </si>
+  <si>
+    <t>Findel</t>
+  </si>
+  <si>
+    <t>Bruxelles</t>
+  </si>
+  <si>
+    <t>Vlaanderen,</t>
+  </si>
+  <si>
+    <t>Courbevoie,</t>
+  </si>
+  <si>
+    <t>Kista,</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>1700-162</t>
+  </si>
+  <si>
+    <t>1050-010</t>
+  </si>
+  <si>
+    <t>115 37</t>
+  </si>
+  <si>
+    <t>3013 AK</t>
+  </si>
+  <si>
+    <t>3044 CK</t>
+  </si>
+  <si>
+    <t>1098 XG</t>
+  </si>
+  <si>
+    <t>111 20</t>
+  </si>
+  <si>
+    <t>115 28</t>
+  </si>
+  <si>
+    <t>1250-096</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3013 AM</t>
+  </si>
+  <si>
+    <t>1082 LC</t>
+  </si>
+  <si>
+    <t>3013 AP</t>
+  </si>
+  <si>
+    <t>1042 AB</t>
+  </si>
+  <si>
+    <t>1105 AT</t>
+  </si>
+  <si>
+    <t>111 48</t>
+  </si>
+  <si>
+    <t>164 32</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SiteAddressA</t>
+  </si>
+  <si>
+    <t>28, Rua de Entrecampos, Lisboa, Portugal, Lisboa, 1700-162</t>
+  </si>
+  <si>
+    <t>33, Vía de las Dos Castillas, Pozuelo de Alarcón, Spain, Comunidad de Madrid, 28224</t>
+  </si>
+  <si>
+    <t>10, Rue Waldeck Rochet, Aubervilliers, France, Île-de-France, 93300</t>
+  </si>
+  <si>
+    <t>1, Place de la Comédie, Lyon, France, Auvergne-Rhône-Alpes, 69001</t>
+  </si>
+  <si>
+    <t>11, Rue des Teinturiers, Lyon, France, Auvergne-Rhône-Alpes, 69003</t>
+  </si>
+  <si>
+    <t>36, Gradestraße, Berlin, Germany, Berlin, 12347</t>
+  </si>
+  <si>
+    <t>45, Rua Tomás Ribeiro, Lisboa, Portugal, Lisboa, 1050-010</t>
+  </si>
+  <si>
+    <t>1, Plaza de la Lealtad, Madrid, Spain, Comunidad de Madrid, 28014</t>
+  </si>
+  <si>
+    <t>18, Luntmakargatan, Stockholm, Sweden, Stockholms län, 111 37</t>
+  </si>
+  <si>
+    <t>62, Tempelhofer Weg, Berlin, Germany, Berlin, 12347</t>
+  </si>
+  <si>
+    <t>17, Rue Jean l'Aveugle, Luxembourg, Luxembourg, District de Luxembourg, 1148</t>
+  </si>
+  <si>
+    <t>45, Stationsplein, Rotterdam, Netherlands, Zuid-Holland, 3013 AK</t>
+  </si>
+  <si>
+    <t>45, Boulevard Pierre Frieden, Luxembourg, Luxembourg, District de Luxembourg, 1543</t>
+  </si>
+  <si>
+    <t>62, Vlaardingweg, Rotterdam, Netherlands, Zuid-Holland, 3044 CK</t>
+  </si>
+  <si>
+    <t>120, Science Park, Amsterdam, Netherlands, Noord-Holland, 1098 XG</t>
+  </si>
+  <si>
+    <t>159, Rua de Gonçalo Sampaio, Porto, Portugal, Porto, 4150-367</t>
+  </si>
+  <si>
+    <t>4, Calle de Alenza, Madrid, Spain, Comunidad de Madrid, 28003</t>
+  </si>
+  <si>
+    <t>19,Graben,Vienna,Austria,1010</t>
+  </si>
+  <si>
+    <t>55,Columbusgasse,Vienna,Austria,1100</t>
+  </si>
+  <si>
+    <t>10, Louis-Häfliger-Gasse, Wien, Austria, Wien, 1210</t>
+  </si>
+  <si>
+    <t>6A,Talpagasse,Vienna,Austria,1230</t>
+  </si>
+  <si>
+    <t>Rue de l'Aqueduc 118, 1050 Ixelles, Belgium</t>
+  </si>
+  <si>
+    <t>25, Rue Madeleine Vionnet, Aubervilliers, France, Île-de-France, 93300</t>
+  </si>
+  <si>
+    <t>10, An der Spreeschanze, Berlin, Germany, Berlin, 13599</t>
+  </si>
+  <si>
+    <t>16, Vasagatan, Stockholm, Sweden, Stockholms län, 111 20</t>
+  </si>
+  <si>
+    <t>45 , Avenue Victor Hugo, Aubervilliers, France, Île-de-France, 93300</t>
+  </si>
+  <si>
+    <t>280, Viale Fulvio Testi, Milano, Italy, Lombardia, 20126</t>
+  </si>
+  <si>
+    <t>40, Industriparken, Ballerup, Denmark, 2750</t>
+  </si>
+  <si>
+    <t>69, Sandhamnsgatan, Stockholm, Sweden, Stockholms län, 115 28</t>
+  </si>
+  <si>
+    <t>4, Via Ambrogio Figino, Milano, Italy, Lombardia, 20156</t>
+  </si>
+  <si>
+    <t>23, Viale Vincenzo Lancetti, Milano, Italy, Lombardia, 20158</t>
+  </si>
+  <si>
+    <t>21, Via Caldera, Milano, Italy, Lombardia, 20153</t>
+  </si>
+  <si>
+    <t>5, Avenida da Liberdade, Lisboa, Portugal, Lisboa, 1250-096</t>
+  </si>
+  <si>
+    <t>61, Carretera de Pozuelo, Majadahonda, Spain, Comunidad de Madrid, 28221</t>
+  </si>
+  <si>
+    <t>67, Avinguda Diagonal, Barcelona, Spain, Catalunya, 08019</t>
+  </si>
+  <si>
+    <t>1, Via de Marini, Genova, Italy, Liguria, 16149</t>
+  </si>
+  <si>
+    <t>133, Noorderlaan, Antwerpen, Belgium, Vlaanderen, 2030</t>
+  </si>
+  <si>
+    <t>93, Avenue du Prado, Marseille, France, Provence-Alpes-Côte d'Azur, 13008</t>
+  </si>
+  <si>
+    <t>60, Gradestraße, Berlin, Germany, Berlin, 12347</t>
+  </si>
+  <si>
+    <t>109, Hansestraße, Köln, Germany, Nordrhein-Westfalen, 51149</t>
+  </si>
+  <si>
+    <t>14, Avenida Severiano Falcão, Prior Velho, Portugal, Lisboa, 2685</t>
+  </si>
+  <si>
+    <t>42, Avenida de Manoteras, Madrid, Spain, Comunidad de Madrid, 28050</t>
+  </si>
+  <si>
+    <t>2, Stieffring, Berlin, Germany, Berlin, 13627</t>
+  </si>
+  <si>
+    <t>252, Widdersdorfer Straße, Köln, Germany, Nordrhein-Westfalen, 50933</t>
+  </si>
+  <si>
+    <t>4, Route de Treves, Findel, Luxembourg, District de Luxembourg, 2632</t>
+  </si>
+  <si>
+    <t>723, Weena, Rotterdam, Netherlands, Zuid-Holland, 3013 AM</t>
+  </si>
+  <si>
+    <t>500, Beethovenstraat, Amsterdam, Netherlands, Noord-Holland, 1082 LC</t>
+  </si>
+  <si>
+    <t>28, Conradstraat, Rotterdam, Netherlands, Zuid-Holland, 3013 AP</t>
+  </si>
+  <si>
+    <t>2E, Gyroscoopweg, Amsterdam, Netherlands, Noord-Holland, 1042 AB</t>
+  </si>
+  <si>
+    <t>42, Schepenbergweg, Amsterdam, Netherlands, Noord-Holland, 1105 AT</t>
+  </si>
+  <si>
+    <t>80, Calle de Mesena, Madrid, Spain, Comunidad de Madrid, 28033</t>
+  </si>
+  <si>
+    <t>29, Carrer de Londres, Barcelona, Spain, Catalunya, 08029</t>
+  </si>
+  <si>
+    <t>31, Avenue des Arts, Bruxelles, Belgium, Bruxelles, 1000</t>
+  </si>
+  <si>
+    <t>220, Plantin en Moretuslei, Antwerpen, Belgium, Vlaanderen, 2018</t>
+  </si>
+  <si>
+    <t>45, Avenue Victor Hugo, Aubervilliers, France, Île-de-France, 93300</t>
+  </si>
+  <si>
+    <t>17, Place des Reflets, Courbevoie, France, Île-de-France, 92400</t>
+  </si>
+  <si>
+    <t>62-63, Alt-Moabit, Berlin, Germany, Berlin, 10555</t>
+  </si>
+  <si>
+    <t>4, Lina-Bommer-Weg, Köln, Germany, Nordrhein-Westfalen, 51149</t>
+  </si>
+  <si>
+    <t>3, Nybrokajen, Stockholm, Sweden, Stockholms län, 111 48</t>
+  </si>
+  <si>
+    <t>1, Norgegatan, Kista, Sweden, Stockholms län, 164 32</t>
+  </si>
+  <si>
+    <t>34, Rue des Gardinoux, Aubervilliers, France, Île-de-France, 93300</t>
+  </si>
+  <si>
+    <t>36, Via Anna Kuliscioff, Milano, Italy, Lombardia, 20152</t>
+  </si>
+  <si>
+    <t>172, Via di Torre Spaccata, Roma, Italy, Lazio, 00169</t>
+  </si>
+  <si>
+    <t>2, Lautrupbjerg, Ballerup, Denmark, 2750</t>
+  </si>
+  <si>
+    <t>173, Refshalevej, København, Denmark, 1432</t>
+  </si>
+  <si>
+    <t>71, Sandhamnsgatan, Stockholm, Sweden, Stockholms län, 115 28</t>
+  </si>
+  <si>
+    <t>16, Via Brisa, Milano, Italy, Lombardia, 20123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12870,8 +13327,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12908,8 +13394,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -12973,11 +13465,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13006,9 +13523,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2"/>
+    <cellStyle name="Normal 11" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="Normal 3" xfId="10"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal 6" xfId="9"/>
+    <cellStyle name="Normal 7" xfId="6"/>
+    <cellStyle name="Normal 8" xfId="7"/>
+    <cellStyle name="Normal 9" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13289,7 +13927,7 @@
   <dimension ref="A1:Q539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42067,11 +42705,4955 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G214"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4336</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4353</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4337</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>33</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4273</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>4319</v>
+      </c>
+      <c r="E3" s="20">
+        <v>28224</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>10</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E5" s="23">
+        <v>69001</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E6" s="23">
+        <v>69003</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26">
+        <v>36</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E7" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26">
+        <v>36</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E8" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>4338</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>4276</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E10" s="20">
+        <v>28014</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26">
+        <v>62</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E12" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <v>17</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E13" s="34">
+        <v>1148</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35">
+        <v>45</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1543</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36">
+        <v>62</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>4341</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36">
+        <v>120</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <v>159</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18">
+        <v>4</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E19" s="19">
+        <v>28003</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1230</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="38">
+        <v>118</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E24" s="38">
+        <v>1050</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21">
+        <v>25</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E25" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>4286</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E26" s="27">
+        <v>13599</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31">
+        <v>16</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>4287</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>4343</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E28" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="41">
+        <v>280</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E29" s="42">
+        <v>20126</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="44">
+        <v>40</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="45">
+        <v>2750</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="44">
+        <v>69</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>4344</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="44">
+        <v>4</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E32" s="44">
+        <v>20126</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="41">
+        <v>23</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>4291</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E33" s="43">
+        <v>20158</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14">
+        <v>28</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>4337</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18">
+        <v>33</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>4273</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>4319</v>
+      </c>
+      <c r="E35" s="20">
+        <v>28224</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21">
+        <v>10</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E36" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="23">
+        <v>1</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E37" s="23">
+        <v>69001</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="23">
+        <v>11</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E38" s="23">
+        <v>69003</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26">
+        <v>36</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E39" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14">
+        <v>45</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>4338</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>4276</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E41" s="20">
+        <v>28014</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="29">
+        <v>18</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="26">
+        <v>62</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E43" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="32">
+        <v>17</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E44" s="34">
+        <v>1148</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="35">
+        <v>45</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="32">
+        <v>45</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E46" s="34">
+        <v>1543</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="36">
+        <v>120</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14">
+        <v>159</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="18">
+        <v>4</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E49" s="19">
+        <v>28003</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1230</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="38">
+        <v>118</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E54" s="38">
+        <v>1050</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="21">
+        <v>25</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E55" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="41">
+        <v>21</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E56" s="42">
+        <v>20153</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14">
+        <v>5</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>4292</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>4345</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="18">
+        <v>61</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E58" s="20">
+        <v>28221</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="18">
+        <v>67</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E59" s="20">
+        <v>8019</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="21">
+        <v>10</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E60" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="44">
+        <v>1</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>4295</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>4325</v>
+      </c>
+      <c r="E61" s="44">
+        <v>16149</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>4354</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="44">
+        <v>133</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E62" s="44">
+        <v>2030</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>4354</v>
+      </c>
+      <c r="G62" s="44" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="23">
+        <v>93</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E63" s="23">
+        <v>13008</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="28">
+        <v>60</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E64" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G64" s="46" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="28">
+        <v>109</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E65" s="27">
+        <v>51149</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="14">
+        <v>14</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E66" s="15">
+        <v>2685</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19">
+        <v>42</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E67" s="20">
+        <v>28050</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="29">
+        <v>18</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="26">
+        <v>2</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E69" s="28">
+        <v>13627</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="26">
+        <v>252</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E70" s="27">
+        <v>50933</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="32">
+        <v>4</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>4300</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E71" s="34">
+        <v>2632</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="35">
+        <v>723</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>4346</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="35">
+        <v>500</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>4347</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="32">
+        <v>45</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E74" s="34">
+        <v>1543</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="36">
+        <v>28</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>4349</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G76" s="47" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="36">
+        <v>42</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>4350</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14">
+        <v>159</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="18">
+        <v>80</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E79" s="20">
+        <v>28033</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="18">
+        <v>29</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>4304</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E80" s="20">
+        <v>8029</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1230</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="38">
+        <v>31</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E84" s="38">
+        <v>1000</v>
+      </c>
+      <c r="F84" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G84" s="46" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="38">
+        <v>220</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>4306</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E85" s="38">
+        <v>2018</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85" s="46" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="21">
+        <v>45</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E86" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21">
+        <v>17</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E87" s="22">
+        <v>92400</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>4308</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E88" s="27">
+        <v>10555</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="26">
+        <v>4</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E89" s="27">
+        <v>51149</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="31">
+        <v>3</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>4310</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>4351</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="31">
+        <v>1</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>4311</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>4333</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>4352</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G91" s="46" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="21">
+        <v>34</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>4312</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E92" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="41">
+        <v>36</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>4313</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E93" s="42">
+        <v>20152</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="41">
+        <v>172</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>4314</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E94" s="43">
+        <v>169</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="44">
+        <v>2</v>
+      </c>
+      <c r="C95" s="44" t="s">
+        <v>4315</v>
+      </c>
+      <c r="D95" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E95" s="48">
+        <v>2750</v>
+      </c>
+      <c r="F95" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G95" s="46" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="44">
+        <v>173</v>
+      </c>
+      <c r="C96" s="44" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E96" s="48">
+        <v>1432</v>
+      </c>
+      <c r="F96" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G96" s="46" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="44">
+        <v>71</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D97" s="44" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E97" s="44" t="s">
+        <v>4344</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G97" s="44" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="44">
+        <v>16</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D98" s="44" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E98" s="44">
+        <v>20123</v>
+      </c>
+      <c r="F98" s="44" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G98" s="44" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="41">
+        <v>21</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E99" s="42">
+        <v>20153</v>
+      </c>
+      <c r="F99" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="14">
+        <v>5</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>4292</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>4345</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="18">
+        <v>61</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E101" s="20">
+        <v>28221</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="18">
+        <v>67</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E102" s="20">
+        <v>8019</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21">
+        <v>10</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E103" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="23">
+        <v>93</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E104" s="23">
+        <v>13008</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="28">
+        <v>60</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E105" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G105" s="46" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="28">
+        <v>109</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E106" s="27">
+        <v>51149</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="14">
+        <v>14</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E107" s="15">
+        <v>2685</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="19">
+        <v>42</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E108" s="20">
+        <v>28050</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="29">
+        <v>18</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="26">
+        <v>2</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E110" s="28">
+        <v>13627</v>
+      </c>
+      <c r="F110" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="26">
+        <v>252</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E111" s="27">
+        <v>50933</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="32">
+        <v>4</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>4300</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E112" s="34">
+        <v>2632</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="35">
+        <v>723</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E113" s="36" t="s">
+        <v>4346</v>
+      </c>
+      <c r="F113" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="35">
+        <v>500</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>4347</v>
+      </c>
+      <c r="F114" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="32">
+        <v>45</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E115" s="34">
+        <v>1543</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="36">
+        <v>28</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F116" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>4349</v>
+      </c>
+      <c r="F117" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" s="47" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="36">
+        <v>42</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>4350</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="14">
+        <v>159</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="18">
+        <v>80</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E120" s="20">
+        <v>28033</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="18">
+        <v>29</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>4304</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E121" s="20">
+        <v>8029</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1230</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="38">
+        <v>31</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E125" s="38">
+        <v>1000</v>
+      </c>
+      <c r="F125" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G125" s="46" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="38">
+        <v>220</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>4306</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E126" s="38">
+        <v>2018</v>
+      </c>
+      <c r="F126" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G126" s="46" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="21">
+        <v>45</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E127" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="21">
+        <v>17</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E128" s="22">
+        <v>92400</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>4308</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E129" s="27">
+        <v>10555</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="26">
+        <v>4</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E130" s="27">
+        <v>51149</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="31">
+        <v>3</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>4310</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>4351</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="31">
+        <v>1</v>
+      </c>
+      <c r="C132" s="31" t="s">
+        <v>4311</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>4333</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>4352</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G132" s="46" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="21">
+        <v>34</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>4312</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E133" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="41">
+        <v>36</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>4313</v>
+      </c>
+      <c r="D134" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E134" s="42">
+        <v>20152</v>
+      </c>
+      <c r="F134" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="41">
+        <v>172</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>4314</v>
+      </c>
+      <c r="D135" s="43" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E135" s="43">
+        <v>169</v>
+      </c>
+      <c r="F135" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="44">
+        <v>2</v>
+      </c>
+      <c r="C136" s="44" t="s">
+        <v>4315</v>
+      </c>
+      <c r="D136" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E136" s="48">
+        <v>2750</v>
+      </c>
+      <c r="F136" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G136" s="46" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="44">
+        <v>173</v>
+      </c>
+      <c r="C137" s="44" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D137" s="44" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E137" s="48">
+        <v>1432</v>
+      </c>
+      <c r="F137" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G137" s="46" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="44">
+        <v>71</v>
+      </c>
+      <c r="C138" s="44" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D138" s="44" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E138" s="44" t="s">
+        <v>4344</v>
+      </c>
+      <c r="F138" s="44" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G138" s="44" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="44">
+        <v>16</v>
+      </c>
+      <c r="C139" s="44" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D139" s="44" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E139" s="44">
+        <v>20123</v>
+      </c>
+      <c r="F139" s="44" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G139" s="44" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="44">
+        <v>16</v>
+      </c>
+      <c r="C140" s="44" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D140" s="44" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E140" s="44">
+        <v>20123</v>
+      </c>
+      <c r="F140" s="44" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G140" s="44" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="44">
+        <v>1</v>
+      </c>
+      <c r="C141" s="44" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D141" s="44" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E141" s="44">
+        <v>69001</v>
+      </c>
+      <c r="F141" s="44" t="s">
+        <v>4354</v>
+      </c>
+      <c r="G141" s="44" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="44">
+        <v>1</v>
+      </c>
+      <c r="C142" s="44" t="s">
+        <v>4295</v>
+      </c>
+      <c r="D142" s="44" t="s">
+        <v>4325</v>
+      </c>
+      <c r="E142" s="44">
+        <v>16149</v>
+      </c>
+      <c r="F142" s="44" t="s">
+        <v>4354</v>
+      </c>
+      <c r="G142" s="44" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="44">
+        <v>133</v>
+      </c>
+      <c r="C143" s="44" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D143" s="44" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E143" s="44">
+        <v>2030</v>
+      </c>
+      <c r="F143" s="44" t="s">
+        <v>4354</v>
+      </c>
+      <c r="G143" s="44" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="41">
+        <v>21</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D144" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E144" s="42">
+        <v>20153</v>
+      </c>
+      <c r="F144" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="14">
+        <v>5</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>4292</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>4345</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="18">
+        <v>61</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E146" s="20">
+        <v>28221</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="18">
+        <v>67</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E147" s="20">
+        <v>8019</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G147" s="17" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="21">
+        <v>10</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E148" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G148" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="23">
+        <v>93</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E149" s="23">
+        <v>13008</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="28">
+        <v>60</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E150" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G150" s="46" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="28">
+        <v>109</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E151" s="27">
+        <v>51149</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="14">
+        <v>14</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E152" s="15">
+        <v>2685</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="19">
+        <v>42</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E153" s="20">
+        <v>28050</v>
+      </c>
+      <c r="F153" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="29">
+        <v>18</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E154" s="30" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F154" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="26">
+        <v>2</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E155" s="28">
+        <v>13627</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="26">
+        <v>252</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E156" s="27">
+        <v>50933</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="32">
+        <v>4</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>4300</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E157" s="34">
+        <v>2632</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="35">
+        <v>723</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>4346</v>
+      </c>
+      <c r="F158" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="35">
+        <v>500</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E159" s="37" t="s">
+        <v>4347</v>
+      </c>
+      <c r="F159" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="32">
+        <v>45</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E160" s="34">
+        <v>1543</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G160" s="24" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="36">
+        <v>28</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E161" s="37" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F161" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E162" s="37" t="s">
+        <v>4349</v>
+      </c>
+      <c r="F162" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G162" s="47" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="36">
+        <v>42</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D163" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E163" s="37" t="s">
+        <v>4350</v>
+      </c>
+      <c r="F163" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="14">
+        <v>159</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F164" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G164" s="24" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="18">
+        <v>80</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E165" s="20">
+        <v>28033</v>
+      </c>
+      <c r="F165" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="18">
+        <v>29</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>4304</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E166" s="20">
+        <v>8029</v>
+      </c>
+      <c r="F166" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>10</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1230</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>10</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="38">
+        <v>31</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D170" s="39" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E170" s="38">
+        <v>1000</v>
+      </c>
+      <c r="F170" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G170" s="46" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="38">
+        <v>220</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>4306</v>
+      </c>
+      <c r="D171" s="39" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E171" s="38">
+        <v>2018</v>
+      </c>
+      <c r="F171" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G171" s="46" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="21">
+        <v>45</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E172" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F172" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G172" s="17" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="21">
+        <v>17</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E173" s="22">
+        <v>92400</v>
+      </c>
+      <c r="F173" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G173" s="17" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>4308</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E174" s="27">
+        <v>10555</v>
+      </c>
+      <c r="F174" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G174" s="17" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="26">
+        <v>4</v>
+      </c>
+      <c r="C175" s="26" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E175" s="27">
+        <v>51149</v>
+      </c>
+      <c r="F175" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G175" s="17" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="31">
+        <v>3</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>4310</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>4351</v>
+      </c>
+      <c r="F176" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="31">
+        <v>1</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>4311</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>4333</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>4352</v>
+      </c>
+      <c r="F177" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G177" s="46" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="21">
+        <v>34</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>4312</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E178" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F178" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G178" s="17" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="41">
+        <v>36</v>
+      </c>
+      <c r="C179" s="41" t="s">
+        <v>4313</v>
+      </c>
+      <c r="D179" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E179" s="42">
+        <v>20152</v>
+      </c>
+      <c r="F179" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G179" s="17" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="41">
+        <v>172</v>
+      </c>
+      <c r="C180" s="41" t="s">
+        <v>4314</v>
+      </c>
+      <c r="D180" s="43" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E180" s="43">
+        <v>169</v>
+      </c>
+      <c r="F180" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G180" s="17" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="44">
+        <v>2</v>
+      </c>
+      <c r="C181" s="44" t="s">
+        <v>4315</v>
+      </c>
+      <c r="D181" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E181" s="48">
+        <v>2750</v>
+      </c>
+      <c r="F181" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G181" s="46" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="44">
+        <v>173</v>
+      </c>
+      <c r="C182" s="44" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D182" s="44" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E182" s="48">
+        <v>1432</v>
+      </c>
+      <c r="F182" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G182" s="46" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="44">
+        <v>71</v>
+      </c>
+      <c r="C183" s="44" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D183" s="44" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E183" s="44" t="s">
+        <v>4344</v>
+      </c>
+      <c r="F183" s="44" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G183" s="44" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="44">
+        <v>16</v>
+      </c>
+      <c r="C184" s="44" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D184" s="44" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E184" s="44">
+        <v>20123</v>
+      </c>
+      <c r="F184" s="44" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G184" s="44" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="41">
+        <v>21</v>
+      </c>
+      <c r="C185" s="41" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D185" s="43" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E185" s="42">
+        <v>20153</v>
+      </c>
+      <c r="F185" s="43" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="14">
+        <v>5</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>4292</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>4345</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="18">
+        <v>61</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E187" s="20">
+        <v>28221</v>
+      </c>
+      <c r="F187" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="18">
+        <v>67</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D188" s="19" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E188" s="20">
+        <v>8019</v>
+      </c>
+      <c r="F188" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="21">
+        <v>10</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E189" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F189" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="23">
+        <v>93</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E190" s="23">
+        <v>13008</v>
+      </c>
+      <c r="F190" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="23">
+        <v>93</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E191" s="23">
+        <v>13008</v>
+      </c>
+      <c r="F191" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G191" s="25" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="28">
+        <v>60</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D192" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E192" s="28">
+        <v>12347</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G192" s="46" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="28">
+        <v>109</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D193" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E193" s="27">
+        <v>51149</v>
+      </c>
+      <c r="F193" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G193" s="17" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="14">
+        <v>14</v>
+      </c>
+      <c r="C194" s="14" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E194" s="15">
+        <v>2685</v>
+      </c>
+      <c r="F194" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="19">
+        <v>42</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E195" s="20">
+        <v>28050</v>
+      </c>
+      <c r="F195" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="29">
+        <v>18</v>
+      </c>
+      <c r="C196" s="30" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E196" s="30" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F196" s="31" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G196" s="25" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="26">
+        <v>2</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D197" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E197" s="28">
+        <v>13627</v>
+      </c>
+      <c r="F197" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G197" s="17" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="26">
+        <v>252</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="D198" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E198" s="27">
+        <v>50933</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G198" s="17" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="32">
+        <v>4</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>4300</v>
+      </c>
+      <c r="D199" s="33" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E199" s="34">
+        <v>2632</v>
+      </c>
+      <c r="F199" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G199" s="17" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="35">
+        <v>723</v>
+      </c>
+      <c r="C200" s="35" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D200" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E200" s="36" t="s">
+        <v>4346</v>
+      </c>
+      <c r="F200" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G200" s="17" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="35">
+        <v>500</v>
+      </c>
+      <c r="C201" s="35" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D201" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E201" s="37" t="s">
+        <v>4347</v>
+      </c>
+      <c r="F201" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G201" s="17" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="32">
+        <v>45</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D202" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E202" s="34">
+        <v>1543</v>
+      </c>
+      <c r="F202" s="33" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G202" s="24" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="36">
+        <v>28</v>
+      </c>
+      <c r="C203" s="37" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D203" s="36" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E203" s="37" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F203" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G203" s="17" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="36">
+        <v>42</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D204" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E204" s="37" t="s">
+        <v>4350</v>
+      </c>
+      <c r="F204" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G204" s="17" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="14">
+        <v>159</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G205" s="24" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="18">
+        <v>80</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E206" s="20">
+        <v>28033</v>
+      </c>
+      <c r="F206" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="18">
+        <v>29</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>4304</v>
+      </c>
+      <c r="D207" s="19" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E207" s="20">
+        <v>8029</v>
+      </c>
+      <c r="F207" s="19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G207" s="17" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>10</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1230</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>10</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="38">
+        <v>31</v>
+      </c>
+      <c r="C211" s="38" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D211" s="39" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E211" s="38">
+        <v>1000</v>
+      </c>
+      <c r="F211" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G211" s="46" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="38">
+        <v>220</v>
+      </c>
+      <c r="C212" s="38" t="s">
+        <v>4306</v>
+      </c>
+      <c r="D212" s="39" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E212" s="38">
+        <v>2018</v>
+      </c>
+      <c r="F212" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G212" s="46" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="21">
+        <v>45</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E213" s="22">
+        <v>93300</v>
+      </c>
+      <c r="F213" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G213" s="17" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="21">
+        <v>17</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E214" s="22">
+        <v>92400</v>
+      </c>
+      <c r="F214" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G214" s="17" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I897"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -68175,7 +73757,7 @@
         <v>1857</v>
       </c>
       <c r="G870" s="2" t="str">
-        <f>CONCATENATE(B870,",",C870,",",D870,",",F870,",",E870)</f>
+        <f t="shared" ref="G870:G897" si="20">CONCATENATE(B870,",",C870,",",D870,",",F870,",",E870)</f>
         <v>13,Liverpool Road,Slough,United Kingdom,SL1 4QZ</v>
       </c>
       <c r="H870" s="9" t="s">
@@ -68205,7 +73787,7 @@
         <v>1857</v>
       </c>
       <c r="G871" s="2" t="str">
-        <f>CONCATENATE(B871,",",C871,",",D871,",",F871,",",E871)</f>
+        <f t="shared" si="20"/>
         <v>670,Ajax Avenue,Slough,United Kingdom,SL1 4BG</v>
       </c>
       <c r="H871" s="9" t="s">
@@ -68235,7 +73817,7 @@
         <v>1857</v>
       </c>
       <c r="G872" s="2" t="str">
-        <f>CONCATENATE(B872,",",C872,",",D872,",",F872,",",E872)</f>
+        <f t="shared" si="20"/>
         <v>352,Buckingham Avenue,Slough,United Kingdom,SL1 4PF</v>
       </c>
       <c r="H872" s="9" t="s">
@@ -68265,7 +73847,7 @@
         <v>1857</v>
       </c>
       <c r="G873" s="2" t="str">
-        <f>CONCATENATE(B873,",",C873,",",D873,",",F873,",",E873)</f>
+        <f t="shared" si="20"/>
         <v>0,Hayes Road,Southall,United Kingdom,UB2 5XX</v>
       </c>
       <c r="H873" s="9" t="s">
@@ -68295,7 +73877,7 @@
         <v>1857</v>
       </c>
       <c r="G874" s="2" t="str">
-        <f>CONCATENATE(B874,",",C874,",",D874,",",F874,",",E874)</f>
+        <f t="shared" si="20"/>
         <v>Unit 21,Kestrel Way,Woking,United Kingdom,GU21 3BA</v>
       </c>
       <c r="H874" s="9" t="s">
@@ -68325,7 +73907,7 @@
         <v>1857</v>
       </c>
       <c r="G875" s="2" t="str">
-        <f>CONCATENATE(B875,",",C875,",",D875,",",F875,",",E875)</f>
+        <f t="shared" si="20"/>
         <v>No House Number,St Annes Boulevard,Redhill,United Kingdom,RH1 1AZ</v>
       </c>
       <c r="H875" s="9" t="s">
@@ -68355,7 +73937,7 @@
         <v>1857</v>
       </c>
       <c r="G876" s="2" t="str">
-        <f>CONCATENATE(B876,",",C876,",",D876,",",F876,",",E876)</f>
+        <f t="shared" si="20"/>
         <v>Unit 2,St Anne'S Boulevard,Redhill,United Kingdom,RH1 1AX</v>
       </c>
       <c r="H876" s="9" t="s">
@@ -68385,7 +73967,7 @@
         <v>1857</v>
       </c>
       <c r="G877" s="2" t="str">
-        <f>CONCATENATE(B877,",",C877,",",D877,",",F877,",",E877)</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">20,Black Fan Road,London,United Kingdom,AL7 1QA </v>
       </c>
       <c r="H877" s="9" t="s">
@@ -68415,7 +73997,7 @@
         <v>1857</v>
       </c>
       <c r="G878" s="2" t="str">
-        <f>CONCATENATE(B878,",",C878,",",D878,",",F878,",",E878)</f>
+        <f t="shared" si="20"/>
         <v>20,Blackfan Road,Welwyn Garden City,United Kingdom,AL7-1QA</v>
       </c>
       <c r="H878" s="9" t="s">
@@ -68445,7 +74027,7 @@
         <v>1857</v>
       </c>
       <c r="G879" s="2" t="str">
-        <f>CONCATENATE(B879,",",C879,",",D879,",",F879,",",E879)</f>
+        <f t="shared" si="20"/>
         <v>1,Bath Road,West Drayton,United Kingdom,UB7 0NA</v>
       </c>
       <c r="H879" s="9" t="s">
@@ -68475,7 +74057,7 @@
         <v>4202</v>
       </c>
       <c r="G880" s="2" t="str">
-        <f>CONCATENATE(B880,",",C880,",",D880,",",F880,",",E880)</f>
+        <f t="shared" si="20"/>
         <v>21711,Filigree Ct,Ashburn,USA,20147</v>
       </c>
       <c r="H880" s="11" t="s">
@@ -68505,7 +74087,7 @@
         <v>4202</v>
       </c>
       <c r="G881" s="2" t="str">
-        <f>CONCATENATE(B881,",",C881,",",D881,",",F881,",",E881)</f>
+        <f t="shared" si="20"/>
         <v>250,Williams St Nw,Atlanta,USA,30303</v>
       </c>
       <c r="H881" s="11" t="s">
@@ -68535,7 +74117,7 @@
         <v>4202</v>
       </c>
       <c r="G882" s="2" t="str">
-        <f>CONCATENATE(B882,",",C882,",",D882,",",F882,",",E882)</f>
+        <f t="shared" si="20"/>
         <v>2905,Diehl Road,Aurora,USA,60502</v>
       </c>
       <c r="H882" s="11" t="s">
@@ -68565,7 +74147,7 @@
         <v>4202</v>
       </c>
       <c r="G883" s="2" t="str">
-        <f>CONCATENATE(B883,",",C883,",",D883,",",F883,",",E883)</f>
+        <f t="shared" si="20"/>
         <v>1,Summer Street,Boston,USA,02110</v>
       </c>
       <c r="H883" s="9" t="s">
@@ -68595,7 +74177,7 @@
         <v>4202</v>
       </c>
       <c r="G884" s="2" t="str">
-        <f>CONCATENATE(B884,",",C884,",",D884,",",F884,",",E884)</f>
+        <f t="shared" si="20"/>
         <v>350,East Cermak Road,Chicago,USA,60616</v>
       </c>
       <c r="H884" s="9" t="s">
@@ -68625,7 +74207,7 @@
         <v>4202</v>
       </c>
       <c r="G885" s="2" t="str">
-        <f>CONCATENATE(B885,",",C885,",",D885,",",F885,",",E885)</f>
+        <f t="shared" si="20"/>
         <v>NA,350 East Cermak Road 60623,Chicago,USA,60616</v>
       </c>
       <c r="H885" s="9" t="s">
@@ -68655,7 +74237,7 @@
         <v>4202</v>
       </c>
       <c r="G886" s="2" t="str">
-        <f>CONCATENATE(B886,",",C886,",",D886,",",F886,",",E886)</f>
+        <f t="shared" si="20"/>
         <v>1950,N Stemmons Fwy,Dallas,USA,75207</v>
       </c>
       <c r="H886" s="11" t="s">
@@ -68685,7 +74267,7 @@
         <v>4202</v>
       </c>
       <c r="G887" s="2" t="str">
-        <f>CONCATENATE(B887,",",C887,",",D887,",",F887,",",E887)</f>
+        <f t="shared" si="20"/>
         <v>624,S Grand Ave,Los Angeles,USA,90017</v>
       </c>
       <c r="H887" s="11" t="s">
@@ -68715,7 +74297,7 @@
         <v>4202</v>
       </c>
       <c r="G888" s="2" t="str">
-        <f>CONCATENATE(B888,",",C888,",",D888,",",F888,",",E888)</f>
+        <f t="shared" si="20"/>
         <v>50,NorthEast 9th St,Miami,USA,33132</v>
       </c>
       <c r="H888" s="11" t="s">
@@ -68745,7 +74327,7 @@
         <v>4202</v>
       </c>
       <c r="G889" s="2" t="str">
-        <f>CONCATENATE(B889,",",C889,",",D889,",",F889,",",E889)</f>
+        <f t="shared" si="20"/>
         <v>165,Halsey Street,Newark,USA,07102</v>
       </c>
       <c r="H889" s="9" t="s">
@@ -68775,7 +74357,7 @@
         <v>4202</v>
       </c>
       <c r="G890" s="2" t="str">
-        <f>CONCATENATE(B890,",",C890,",",D890,",",F890,",",E890)</f>
+        <f t="shared" si="20"/>
         <v>111,8th Avenue,New York,USA,10011</v>
       </c>
       <c r="H890" s="11" t="s">
@@ -68805,7 +74387,7 @@
         <v>4202</v>
       </c>
       <c r="G891" s="2" t="str">
-        <f>CONCATENATE(B891,",",C891,",",D891,",",F891,",",E891)</f>
+        <f t="shared" si="20"/>
         <v>60,Hudson Street,New York,USA,10013</v>
       </c>
       <c r="H891" s="9" t="s">
@@ -68835,7 +74417,7 @@
         <v>4202</v>
       </c>
       <c r="G892" s="2" t="str">
-        <f>CONCATENATE(B892,",",C892,",",D892,",",F892,",",E892)</f>
+        <f t="shared" si="20"/>
         <v>615,North 48th Street,Phoenix,USA,85008</v>
       </c>
       <c r="H892" s="11" t="s">
@@ -68865,7 +74447,7 @@
         <v>4202</v>
       </c>
       <c r="G893" s="2" t="str">
-        <f>CONCATENATE(B893,",",C893,",",D893,",",F893,",",E893)</f>
+        <f t="shared" si="20"/>
         <v>11,Great Oaks Boulevard,San Jose,USA,95119</v>
       </c>
       <c r="H893" s="11" t="s">
@@ -68895,7 +74477,7 @@
         <v>4202</v>
       </c>
       <c r="G894" s="2" t="str">
-        <f>CONCATENATE(B894,",",C894,",",D894,",",F894,",",E894)</f>
+        <f t="shared" si="20"/>
         <v>2001,6th Ave,Seattle,USA,98121</v>
       </c>
       <c r="H894" s="11" t="s">
@@ -68925,7 +74507,7 @@
         <v>4202</v>
       </c>
       <c r="G895" s="2" t="str">
-        <f>CONCATENATE(B895,",",C895,",",D895,",",F895,",",E895)</f>
+        <f t="shared" si="20"/>
         <v>275,Hartz Way,Secaucus,USA,07094</v>
       </c>
       <c r="H895" s="9" t="s">
@@ -68955,7 +74537,7 @@
         <v>4202</v>
       </c>
       <c r="G896" s="2" t="str">
-        <f>CONCATENATE(B896,",",C896,",",D896,",",F896,",",E896)</f>
+        <f t="shared" si="20"/>
         <v>755,Secaucus Road,Secaucus,USA,07094</v>
       </c>
       <c r="H896" s="9" t="s">
@@ -68985,7 +74567,7 @@
         <v>4202</v>
       </c>
       <c r="G897" s="2" t="str">
-        <f>CONCATENATE(B897,",",C897,",",D897,",",F897,",",E897)</f>
+        <f t="shared" si="20"/>
         <v>800,Secaucus Rd,Secaucus,USA,07094</v>
       </c>
       <c r="H897" s="9" t="s">
@@ -69000,12 +74582,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
